--- a/doc/completion/UseCaseConfiguration/900系_ユースケース構成.xlsx
+++ b/doc/completion/UseCaseConfiguration/900系_ユースケース構成.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -270,29 +270,6 @@
   </si>
   <si>
     <t>901_01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Account.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>901_01_01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AccountRegistered.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Account.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -326,6 +303,61 @@
 　　ヘッダー（非ログイン時）</t>
     <rPh sb="15" eb="16">
       <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>901_03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録確認</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewAccount.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountConfirmation.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountConfirmed.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0901_03_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0901_01_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -597,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,62 +701,75 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1499,10 +1544,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1510,7 +1555,7 @@
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
@@ -1527,20 +1572,20 @@
         <v>10</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="43"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -1573,55 +1618,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="39" t="s">
+      <c r="I6" s="41"/>
+      <c r="J6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="39" t="s">
+      <c r="K6" s="46"/>
+      <c r="L6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1639,26 +1684,26 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="47" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1667,15 +1712,15 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1689,26 +1734,26 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="47" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="C10" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1717,20 +1762,20 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="36"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+        <v>43</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1738,88 +1783,136 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="C12" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="I12" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="36"/>
-      <c r="B13" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="3" t="s">
-        <v>24</v>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="56" t="s">
+        <v>50</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D15" s="10"/>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15" s="48"/>
+      <c r="B15" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D17" s="11"/>
+      <c r="D17" s="10"/>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D19" s="9"/>
+      <c r="D19" s="11"/>
       <c r="E19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D21" s="9"/>
+      <c r="E21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E23" s="29"/>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E25" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:C11"/>
@@ -1834,12 +1927,14 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
